--- a/medicine/Psychotrope/Champagne_Charles_Mignon_-_Léon_Launois/Champagne_Charles_Mignon_-_Léon_Launois.xlsx
+++ b/medicine/Psychotrope/Champagne_Charles_Mignon_-_Léon_Launois/Champagne_Charles_Mignon_-_Léon_Launois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Champagne_Charles_Mignon_-_L%C3%A9on_Launois</t>
+          <t>Champagne_Charles_Mignon_-_Léon_Launois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Charles Mignon - Léon Launois est une maison de champagne fondée en 1995 à Épernay. La maison possède ses propres vignobles dans la commune grand cru de Chouilly et dans la vallée de la Marne. La maison a des contrats avec des vignerons de la vallée de la Marne ainsi que des coteaux de la Montagne de Reims. Une grande partie des raisins transformés en champagne sont des chardonnay de la Côte des Blancs.
 Le pinot meunier est cultivé au Mesnil Le Huttier et à Festigny. Comme l'entreprise a besoin de plus de raisins qu'il n'est possible d'en cultiver, des contrats ont été conclus avec des agriculteurs de la vallée de la Marne et des environs d'Épernay.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Champagne_Charles_Mignon_-_L%C3%A9on_Launois</t>
+          <t>Champagne_Charles_Mignon_-_Léon_Launois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Les champagnes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le Brut Premium-Réserve est composé des trois cépages principaux de Champagne, le pinot noir, le pinot meunier et le chardonnay. Le champagne est une réserve, ce qui signifie que le vin a été mélangé avec les réserves de la cave. De cette façon, même une année moins millésimée permet d'obtenir une qualité constante et une fidélité au style de la maison. Le brut est le champagne le plus vendu et la carte de visite de la maison.
 Le Premium-Brut Réserve 1er Cru est composé à 75% de pinot noir et à 25% de chardonnay des communes de premier cru.
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Champagne_Charles_Mignon_-_L%C3%A9on_Launois</t>
+          <t>Champagne_Charles_Mignon_-_Léon_Launois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Site internet de la maison Léon Launois
 Site internet de la maison Charles Mignon
